--- a/MetallFactory/output/schedule.xlsx
+++ b/MetallFactory/output/schedule.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID партии</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>Печь 3</t>
+  </si>
+  <si>
+    <t>Гуталин</t>
+  </si>
+  <si>
+    <t>Супер печь</t>
   </si>
   <si>
     <t>Платина</t>
@@ -90,7 +96,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -166,30 +172,30 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0">
         <v>20</v>
@@ -200,33 +206,33 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0">
         <v>40</v>
-      </c>
-      <c r="E7" s="0">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D8" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E8" s="0">
         <v>60</v>
@@ -234,50 +240,50 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="0">
         <v>40</v>
       </c>
       <c r="E9" s="0">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="0">
+        <v>40</v>
+      </c>
+      <c r="E10" s="0">
         <v>60</v>
-      </c>
-      <c r="E10" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="0">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E11" s="0">
         <v>80</v>
@@ -285,7 +291,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -294,15 +300,15 @@
         <v>6</v>
       </c>
       <c r="D12" s="0">
+        <v>60</v>
+      </c>
+      <c r="E12" s="0">
         <v>80</v>
-      </c>
-      <c r="E12" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -311,58 +317,58 @@
         <v>8</v>
       </c>
       <c r="D13" s="0">
+        <v>60</v>
+      </c>
+      <c r="E13" s="0">
         <v>80</v>
-      </c>
-      <c r="E13" s="0">
-        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0">
         <v>80</v>
       </c>
       <c r="E14" s="0">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0">
+        <v>80</v>
+      </c>
+      <c r="E15" s="0">
         <v>100</v>
-      </c>
-      <c r="E15" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E16" s="0">
         <v>120</v>
@@ -370,7 +376,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -379,15 +385,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="0">
+        <v>100</v>
+      </c>
+      <c r="E17" s="0">
         <v>120</v>
-      </c>
-      <c r="E17" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -396,58 +402,58 @@
         <v>8</v>
       </c>
       <c r="D18" s="0">
+        <v>100</v>
+      </c>
+      <c r="E18" s="0">
         <v>120</v>
-      </c>
-      <c r="E18" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="0">
         <v>120</v>
       </c>
       <c r="E19" s="0">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
+        <v>120</v>
+      </c>
+      <c r="E20" s="0">
         <v>140</v>
-      </c>
-      <c r="E20" s="0">
-        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E21" s="0">
         <v>160</v>
@@ -455,7 +461,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -464,15 +470,15 @@
         <v>6</v>
       </c>
       <c r="D22" s="0">
+        <v>140</v>
+      </c>
+      <c r="E22" s="0">
         <v>160</v>
-      </c>
-      <c r="E22" s="0">
-        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -481,58 +487,58 @@
         <v>8</v>
       </c>
       <c r="D23" s="0">
+        <v>140</v>
+      </c>
+      <c r="E23" s="0">
         <v>160</v>
-      </c>
-      <c r="E23" s="0">
-        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" s="0">
         <v>160</v>
       </c>
       <c r="E24" s="0">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="0">
+        <v>160</v>
+      </c>
+      <c r="E25" s="0">
         <v>180</v>
-      </c>
-      <c r="E25" s="0">
-        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E26" s="0">
         <v>200</v>
@@ -540,7 +546,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -549,15 +555,15 @@
         <v>6</v>
       </c>
       <c r="D27" s="0">
+        <v>180</v>
+      </c>
+      <c r="E27" s="0">
         <v>200</v>
-      </c>
-      <c r="E27" s="0">
-        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -566,75 +572,75 @@
         <v>8</v>
       </c>
       <c r="D28" s="0">
+        <v>180</v>
+      </c>
+      <c r="E28" s="0">
         <v>200</v>
-      </c>
-      <c r="E28" s="0">
-        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" s="0">
         <v>200</v>
       </c>
       <c r="E29" s="0">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="0">
+        <v>200</v>
+      </c>
+      <c r="E30" s="0">
         <v>220</v>
-      </c>
-      <c r="E30" s="0">
-        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="E31" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D32" s="0">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="E32" s="0">
         <v>260</v>
@@ -642,324 +648,358 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D33" s="0">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="E33" s="0">
-        <v>300</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34" s="0">
+        <v>240</v>
+      </c>
+      <c r="E34" s="0">
         <v>260</v>
-      </c>
-      <c r="E34" s="0">
-        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="0">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E35" s="0">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="0">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="E36" s="0">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="E37" s="0">
-        <v>350</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="0">
+        <v>280</v>
+      </c>
+      <c r="E38" s="0">
         <v>320</v>
-      </c>
-      <c r="E38" s="0">
-        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="0">
+        <v>300</v>
+      </c>
+      <c r="E39" s="0">
         <v>350</v>
-      </c>
-      <c r="E39" s="0">
-        <v>400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="0">
+        <v>320</v>
+      </c>
+      <c r="E40" s="0">
         <v>360</v>
-      </c>
-      <c r="E40" s="0">
-        <v>400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="0">
+        <v>350</v>
+      </c>
+      <c r="E41" s="0">
         <v>400</v>
-      </c>
-      <c r="E41" s="0">
-        <v>440</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" s="0">
+        <v>360</v>
+      </c>
+      <c r="E42" s="0">
         <v>400</v>
-      </c>
-      <c r="E42" s="0">
-        <v>450</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0">
+        <v>400</v>
+      </c>
+      <c r="E43" s="0">
         <v>440</v>
-      </c>
-      <c r="E43" s="0">
-        <v>480</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="0">
+        <v>400</v>
+      </c>
+      <c r="E44" s="0">
         <v>450</v>
-      </c>
-      <c r="E44" s="0">
-        <v>500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="0">
+        <v>440</v>
+      </c>
+      <c r="E45" s="0">
         <v>480</v>
-      </c>
-      <c r="E45" s="0">
-        <v>520</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="0">
+        <v>450</v>
+      </c>
+      <c r="E46" s="0">
         <v>500</v>
-      </c>
-      <c r="E46" s="0">
-        <v>550</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="0">
+        <v>480</v>
+      </c>
+      <c r="E47" s="0">
         <v>520</v>
-      </c>
-      <c r="E47" s="0">
-        <v>560</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="0">
+        <v>500</v>
+      </c>
+      <c r="E48" s="0">
         <v>550</v>
-      </c>
-      <c r="E48" s="0">
-        <v>600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="0">
+        <v>520</v>
+      </c>
+      <c r="E49" s="0">
         <v>560</v>
-      </c>
-      <c r="E49" s="0">
-        <v>600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="0">
+        <v>550</v>
+      </c>
+      <c r="E50" s="0">
         <v>600</v>
-      </c>
-      <c r="E50" s="0">
-        <v>640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
+        <v>42</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="0">
+        <v>560</v>
+      </c>
+      <c r="E51" s="0">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>47</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="0">
+        <v>600</v>
+      </c>
+      <c r="E52" s="0">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
         <v>48</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="0">
+      <c r="B53" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="0">
         <v>600</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E53" s="0">
         <v>650</v>
       </c>
     </row>

--- a/MetallFactory/output/schedule.xlsx
+++ b/MetallFactory/output/schedule.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID партии</t>
   </si>
@@ -42,12 +42,6 @@
   </si>
   <si>
     <t>Печь 3</t>
-  </si>
-  <si>
-    <t>Гуталин</t>
-  </si>
-  <si>
-    <t>Супер печь</t>
   </si>
   <si>
     <t>Платина</t>
@@ -96,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -172,30 +166,30 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="0">
         <v>20</v>
@@ -206,33 +200,33 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E7" s="0">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="0">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E8" s="0">
         <v>60</v>
@@ -240,50 +234,50 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="0">
         <v>40</v>
       </c>
       <c r="E9" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="0">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E10" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="0">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E11" s="0">
         <v>80</v>
@@ -291,7 +285,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -300,15 +294,15 @@
         <v>6</v>
       </c>
       <c r="D12" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E12" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>7</v>
@@ -317,58 +311,58 @@
         <v>8</v>
       </c>
       <c r="D13" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E13" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0">
         <v>80</v>
       </c>
       <c r="E14" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D15" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E15" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E16" s="0">
         <v>120</v>
@@ -376,7 +370,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -385,15 +379,15 @@
         <v>6</v>
       </c>
       <c r="D17" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E17" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>7</v>
@@ -402,58 +396,58 @@
         <v>8</v>
       </c>
       <c r="D18" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E18" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0">
         <v>120</v>
       </c>
       <c r="E19" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E20" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E21" s="0">
         <v>160</v>
@@ -461,7 +455,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -470,15 +464,15 @@
         <v>6</v>
       </c>
       <c r="D22" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E22" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>7</v>
@@ -487,58 +481,58 @@
         <v>8</v>
       </c>
       <c r="D23" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E23" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0">
         <v>160</v>
       </c>
       <c r="E24" s="0">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E25" s="0">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E26" s="0">
         <v>200</v>
@@ -546,7 +540,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>5</v>
@@ -555,15 +549,15 @@
         <v>6</v>
       </c>
       <c r="D27" s="0">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E27" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>7</v>
@@ -572,75 +566,75 @@
         <v>8</v>
       </c>
       <c r="D28" s="0">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E28" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0">
         <v>200</v>
       </c>
       <c r="E29" s="0">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E30" s="0">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E31" s="0">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" s="0">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E32" s="0">
         <v>260</v>
@@ -648,358 +642,324 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="0">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E33" s="0">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D34" s="0">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E34" s="0">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35" s="0">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E35" s="0">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="0">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E36" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="0">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="E37" s="0">
-        <v>280</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="0">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="E38" s="0">
-        <v>320</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="0">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="E39" s="0">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="0">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="E40" s="0">
-        <v>360</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="0">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E41" s="0">
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="E42" s="0">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="E43" s="0">
-        <v>440</v>
+        <v>480</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="0">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E44" s="0">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="0">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="E45" s="0">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="0">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="E46" s="0">
-        <v>500</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="0">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E47" s="0">
-        <v>520</v>
+        <v>560</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="0">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="E48" s="0">
-        <v>550</v>
+        <v>600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="0">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="E49" s="0">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D50" s="0">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E50" s="0">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="0">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="E51" s="0">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>47</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="0">
-        <v>600</v>
-      </c>
-      <c r="E52" s="0">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>48</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="0">
-        <v>600</v>
-      </c>
-      <c r="E53" s="0">
         <v>650</v>
       </c>
     </row>

--- a/MetallFactory/output/schedule.xlsx
+++ b/MetallFactory/output/schedule.xlsx
@@ -41,10 +41,10 @@
     <t>Печь 2</t>
   </si>
   <si>
+    <t>Платина</t>
+  </si>
+  <si>
     <t>Печь 3</t>
-  </si>
-  <si>
-    <t>Платина</t>
   </si>
 </sst>
 </file>
@@ -149,24 +149,24 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>5</v>
@@ -200,7 +200,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>5</v>
@@ -234,24 +234,24 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E9" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -285,7 +285,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>5</v>
@@ -319,16 +319,16 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E14" s="0">
         <v>120</v>
@@ -336,13 +336,13 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15" s="0">
         <v>100</v>
@@ -353,24 +353,24 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0">
         <v>100</v>
       </c>
       <c r="E16" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>5</v>
@@ -404,16 +404,16 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D19" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E19" s="0">
         <v>160</v>
@@ -421,13 +421,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
         <v>140</v>
@@ -438,24 +438,24 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E21" s="0">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>5</v>
@@ -489,16 +489,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D24" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="E24" s="0">
         <v>200</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D25" s="0">
         <v>180</v>
@@ -523,30 +523,30 @@
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D26" s="0">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E26" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27" s="0">
         <v>200</v>
@@ -557,36 +557,36 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0">
         <v>200</v>
       </c>
       <c r="E28" s="0">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D29" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E29" s="0">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30">
@@ -597,35 +597,35 @@
         <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D30" s="0">
         <v>220</v>
       </c>
       <c r="E30" s="0">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="0">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E31" s="0">
-        <v>240</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>7</v>
@@ -642,13 +642,13 @@
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="0">
         <v>250</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>6</v>
@@ -671,12 +671,12 @@
         <v>260</v>
       </c>
       <c r="E34" s="0">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>7</v>
@@ -693,70 +693,70 @@
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="0">
         <v>280</v>
       </c>
       <c r="E36" s="0">
-        <v>320</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D37" s="0">
+        <v>280</v>
+      </c>
+      <c r="E37" s="0">
         <v>300</v>
-      </c>
-      <c r="E37" s="0">
-        <v>350</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="0">
+        <v>300</v>
+      </c>
+      <c r="E38" s="0">
         <v>320</v>
-      </c>
-      <c r="E38" s="0">
-        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" s="0">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="E39" s="0">
-        <v>400</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
@@ -764,16 +764,16 @@
         <v>18</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D40" s="0">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="E40" s="0">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="41">
@@ -781,16 +781,16 @@
         <v>19</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="0">
-        <v>400</v>
+        <v>320</v>
       </c>
       <c r="E41" s="0">
-        <v>440</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42">
@@ -798,16 +798,16 @@
         <v>20</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" s="0">
+        <v>350</v>
+      </c>
+      <c r="E42" s="0">
         <v>400</v>
-      </c>
-      <c r="E42" s="0">
-        <v>450</v>
       </c>
     </row>
     <row r="43">
@@ -815,16 +815,16 @@
         <v>22</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="0">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="E43" s="0">
-        <v>480</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44">
@@ -832,16 +832,16 @@
         <v>27</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" s="0">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="E44" s="0">
-        <v>500</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45">
@@ -849,16 +849,16 @@
         <v>32</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45" s="0">
-        <v>480</v>
+        <v>400</v>
       </c>
       <c r="E45" s="0">
-        <v>520</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46">
@@ -866,16 +866,16 @@
         <v>33</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D46" s="0">
-        <v>500</v>
+        <v>440</v>
       </c>
       <c r="E46" s="0">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47">
@@ -883,16 +883,16 @@
         <v>35</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D47" s="0">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="E47" s="0">
-        <v>560</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
@@ -900,16 +900,16 @@
         <v>37</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D48" s="0">
-        <v>550</v>
+        <v>480</v>
       </c>
       <c r="E48" s="0">
-        <v>600</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49">
@@ -917,16 +917,16 @@
         <v>42</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D49" s="0">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="E49" s="0">
-        <v>600</v>
+        <v>550</v>
       </c>
     </row>
     <row r="50">
@@ -934,16 +934,16 @@
         <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="0">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="E50" s="0">
-        <v>640</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51">
@@ -951,16 +951,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" s="0">
+        <v>550</v>
+      </c>
+      <c r="E51" s="0">
         <v>600</v>
-      </c>
-      <c r="E51" s="0">
-        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/MetallFactory/output/schedule.xlsx
+++ b/MetallFactory/output/schedule.xlsx
@@ -29,13 +29,13 @@
     <t>Окончание</t>
   </si>
   <si>
+    <t>Золото</t>
+  </si>
+  <si>
+    <t>Печь 1</t>
+  </si>
+  <si>
     <t>Серебро</t>
-  </si>
-  <si>
-    <t>Печь 1</t>
-  </si>
-  <si>
-    <t>Золото</t>
   </si>
   <si>
     <t>Печь 2</t>
@@ -115,7 +115,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>5</v>
@@ -127,12 +127,12 @@
         <v>0</v>
       </c>
       <c r="E2" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
@@ -169,10 +169,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="0">
         <v>20</v>
@@ -186,16 +186,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="0">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -203,10 +203,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" s="0">
         <v>40</v>
@@ -217,41 +217,41 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E8" s="0">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E9" s="0">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>5</v>
@@ -260,15 +260,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E10" s="0">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>7</v>
@@ -277,49 +277,49 @@
         <v>8</v>
       </c>
       <c r="D11" s="0">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E11" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E12" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E13" s="0">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>5</v>
@@ -328,15 +328,15 @@
         <v>6</v>
       </c>
       <c r="D14" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14" s="0">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>7</v>
@@ -345,83 +345,83 @@
         <v>8</v>
       </c>
       <c r="D15" s="0">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E15" s="0">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="0">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E16" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E17" s="0">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="E18" s="0">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19" s="0">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E19" s="0">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>7</v>
@@ -430,151 +430,151 @@
         <v>8</v>
       </c>
       <c r="D20" s="0">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="E20" s="0">
-        <v>160</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" s="0">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="E21" s="0">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E22" s="0">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D23" s="0">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="E23" s="0">
-        <v>180</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" s="0">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="E24" s="0">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="0">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E25" s="0">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="E26" s="0">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D27" s="0">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E27" s="0">
-        <v>220</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D28" s="0">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="E28" s="0">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>5</v>
@@ -583,15 +583,15 @@
         <v>6</v>
       </c>
       <c r="D29" s="0">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E29" s="0">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>7</v>
@@ -600,100 +600,100 @@
         <v>8</v>
       </c>
       <c r="D30" s="0">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="E30" s="0">
-        <v>240</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" s="0">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E31" s="0">
-        <v>260</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E32" s="0">
-        <v>260</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="0">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="E33" s="0">
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" s="0">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="E34" s="0">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35" s="0">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="E35" s="0">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>5</v>
@@ -702,32 +702,32 @@
         <v>6</v>
       </c>
       <c r="D36" s="0">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="E36" s="0">
-        <v>300</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D37" s="0">
-        <v>280</v>
+        <v>400</v>
       </c>
       <c r="E37" s="0">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>5</v>
@@ -736,129 +736,129 @@
         <v>6</v>
       </c>
       <c r="D38" s="0">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="E38" s="0">
-        <v>320</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39" s="0">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="E39" s="0">
-        <v>320</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D40" s="0">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="E40" s="0">
-        <v>350</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D41" s="0">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="E41" s="0">
-        <v>360</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D42" s="0">
-        <v>350</v>
+        <v>520</v>
       </c>
       <c r="E42" s="0">
-        <v>400</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D43" s="0">
-        <v>360</v>
+        <v>550</v>
       </c>
       <c r="E43" s="0">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" s="0">
-        <v>400</v>
+        <v>560</v>
       </c>
       <c r="E44" s="0">
-        <v>440</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45" s="0">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E45" s="0">
-        <v>450</v>
+        <v>640</v>
       </c>
     </row>
     <row r="46">
@@ -869,13 +869,13 @@
         <v>9</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D46" s="0">
-        <v>440</v>
+        <v>600</v>
       </c>
       <c r="E46" s="0">
-        <v>480</v>
+        <v>650</v>
       </c>
     </row>
     <row r="47">
@@ -889,10 +889,10 @@
         <v>10</v>
       </c>
       <c r="D47" s="0">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="E47" s="0">
-        <v>500</v>
+        <v>700</v>
       </c>
     </row>
     <row r="48">
@@ -903,13 +903,13 @@
         <v>9</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48" s="0">
-        <v>480</v>
+        <v>700</v>
       </c>
       <c r="E48" s="0">
-        <v>520</v>
+        <v>750</v>
       </c>
     </row>
     <row r="49">
@@ -923,10 +923,10 @@
         <v>10</v>
       </c>
       <c r="D49" s="0">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E49" s="0">
-        <v>550</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50">
@@ -937,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D50" s="0">
-        <v>520</v>
+        <v>800</v>
       </c>
       <c r="E50" s="0">
-        <v>560</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51">
@@ -957,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="D51" s="0">
-        <v>550</v>
+        <v>850</v>
       </c>
       <c r="E51" s="0">
-        <v>600</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
